--- a/QueryReport/excelTemplate/Employee_template1_20200303120000_(1)_20200303120000.xlsx
+++ b/QueryReport/excelTemplate/Employee_template1_20200303120000_(1)_20200303120000.xlsx
@@ -559,8 +559,12 @@
     <x:numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
   </x:numFmts>
-  <x:fonts count="9">
+  <x:fonts count="17">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -615,6 +619,50 @@
       <x:b/>
       <x:color rgb="000000"/>
     </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -644,7 +692,7 @@
       <x:alignment vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -671,6 +719,18 @@
     <x:xf fontId="7" borderId="0" applyFont="1"/>
     <x:xf fontId="8" borderId="0" applyFont="1"/>
     <x:xf numFmtId="240" fontId="7" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="9" borderId="0" applyFont="1"/>
+    <x:xf fontId="10" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="9" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="11" borderId="0" applyFont="1"/>
+    <x:xf fontId="12" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="11" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="13" borderId="0" applyFont="1"/>
+    <x:xf fontId="14" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="13" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="15" borderId="0" applyFont="1"/>
+    <x:xf fontId="16" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="15" borderId="0" applyNumberFormat="1" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3552,1011 +3612,1011 @@
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="A4" s="11" t="str">
+      <x:c r="A4" s="23" t="str">
         <x:v>_DATASTART</x:v>
       </x:c>
-      <x:c r="B4" s="11" t="str">
+      <x:c r="B4" s="23" t="str">
         <x:v>Contract Description</x:v>
       </x:c>
-      <x:c r="C4" s="11" t="str">
+      <x:c r="C4" s="23" t="str">
         <x:v>Staff Number</x:v>
       </x:c>
-      <x:c r="D4" s="11" t="str">
+      <x:c r="D4" s="23" t="str">
         <x:v>English Name</x:v>
       </x:c>
-      <x:c r="E4" s="11" t="str">
+      <x:c r="E4" s="23" t="str">
         <x:v>Zone Name</x:v>
       </x:c>
-      <x:c r="F4" s="11" t="str">
+      <x:c r="F4" s="23" t="str">
         <x:v>Position Name</x:v>
       </x:c>
-      <x:c r="G4" s="11" t="str">
+      <x:c r="G4" s="23" t="str">
         <x:v>Join Date</x:v>
       </x:c>
-      <x:c r="H4" s="11" t="str">
+      <x:c r="H4" s="23" t="str">
         <x:v>Year of Service</x:v>
       </x:c>
-      <x:c r="I4" s="11" t="str">
+      <x:c r="I4" s="23" t="str">
         <x:v>Annual Leave Class</x:v>
       </x:c>
-      <x:c r="J4" s="11" t="str">
+      <x:c r="J4" s="23" t="str">
         <x:v>Holiday Type</x:v>
       </x:c>
-      <x:c r="K4" s="11" t="str">
+      <x:c r="K4" s="23" t="str">
         <x:v>Employment Type</x:v>
       </x:c>
-      <x:c r="L4" s="11" t="str">
+      <x:c r="L4" s="23" t="str">
         <x:v>Basic Salary</x:v>
       </x:c>
-      <x:c r="M4" s="11" t="str">
+      <x:c r="M4" s="23" t="str">
         <x:v>Pay Scale Point</x:v>
       </x:c>
-      <x:c r="N4" s="11" t="str">
+      <x:c r="N4" s="23" t="str">
         <x:v>PayScale Scheme</x:v>
       </x:c>
-      <x:c r="O4" s="11" t="str">
+      <x:c r="O4" s="23" t="str">
         <x:v>Commence Date</x:v>
       </x:c>
-      <x:c r="P4" s="11" t="str">
+      <x:c r="P4" s="23" t="str">
         <x:v>Terminate Date</x:v>
       </x:c>
-      <x:c r="Q4" s="11" t="str">
+      <x:c r="Q4" s="23" t="str">
         <x:v>Staff Status</x:v>
       </x:c>
-      <x:c r="R4" s="11" t="str">
+      <x:c r="R4" s="23" t="str">
         <x:v>Part Time</x:v>
       </x:c>
-      <x:c r="S4" s="11" t="str">
+      <x:c r="S4" s="23" t="str">
         <x:v>SecurityGroupID</x:v>
       </x:c>
-      <x:c r="T4" s="11" t="str">
+      <x:c r="T4" s="23" t="str">
         <x:v>Securtiy Group</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="B5" s="11" t="str">
+      <x:c r="B5" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C5" s="11" t="str">
+      <x:c r="C5" s="23" t="str">
         <x:v>AA100818</x:v>
       </x:c>
-      <x:c r="D5" s="11" t="str">
+      <x:c r="D5" s="23" t="str">
         <x:v>Chan Tai man 10</x:v>
       </x:c>
-      <x:c r="E5" s="11" t="str">
+      <x:c r="E5" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F5" s="11" t="str">
+      <x:c r="F5" s="23" t="str">
         <x:v>CARE WORKER 護理員</x:v>
       </x:c>
-      <x:c r="G5" s="13" t="d">
+      <x:c r="G5" s="25" t="d">
         <x:v>2019-10-11T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H5" s="11" t="n">
+      <x:c r="H5" s="23" t="n">
         <x:v>0.3962</x:v>
       </x:c>
-      <x:c r="I5" s="11" t="str">
+      <x:c r="I5" s="23" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c r="J5" s="11" t="str">
+      <x:c r="J5" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K5" s="11" t="str">
+      <x:c r="K5" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L5" s="11" t="n">
+      <x:c r="L5" s="23" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="M5" s="11" t="n">
+      <x:c r="M5" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N5" s="11" t="str">
+      <x:c r="N5" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O5" s="13" t="d">
+      <x:c r="O5" s="25" t="d">
         <x:v>2019-10-11T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P5" s="13" t="d">
+      <x:c r="P5" s="25" t="d">
         <x:v>2020-10-11T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q5" s="11" t="str">
+      <x:c r="Q5" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R5" s="11" t="str">
+      <x:c r="R5" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S5" s="11" t="n">
+      <x:c r="S5" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T5" s="11" t="str">
+      <x:c r="T5" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="B6" s="11" t="str">
+      <x:c r="B6" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C6" s="11" t="str">
+      <x:c r="C6" s="23" t="str">
         <x:v>S30171</x:v>
       </x:c>
-      <x:c r="D6" s="11" t="str">
+      <x:c r="D6" s="23" t="str">
         <x:v>Chan Ka Man</x:v>
       </x:c>
-      <x:c r="E6" s="11" t="str">
+      <x:c r="E6" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F6" s="11" t="str">
+      <x:c r="F6" s="23" t="str">
         <x:v>SOCIAL WORKER 社會工作員</x:v>
       </x:c>
-      <x:c r="G6" s="13" t="d">
+      <x:c r="G6" s="25" t="d">
         <x:v>2011-10-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H6" s="11" t="n">
+      <x:c r="H6" s="23" t="n">
         <x:v>8.4235</x:v>
       </x:c>
-      <x:c r="I6" s="11" t="str">
+      <x:c r="I6" s="23" t="str">
         <x:v>AL10</x:v>
       </x:c>
-      <x:c r="J6" s="11" t="str">
+      <x:c r="J6" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K6" s="11" t="str">
+      <x:c r="K6" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L6" s="11" t="n">
+      <x:c r="L6" s="23" t="n">
         <x:v>61170</x:v>
       </x:c>
-      <x:c r="M6" s="11" t="n">
+      <x:c r="M6" s="23" t="n">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="N6" s="11" t="str">
+      <x:c r="N6" s="23" t="str">
         <x:v>MPS</x:v>
       </x:c>
-      <x:c r="O6" s="13" t="d">
+      <x:c r="O6" s="25" t="d">
         <x:v>2018-11-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P6" s="13" t="d">
+      <x:c r="P6" s="25" t="d">
         <x:v>2020-08-31T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q6" s="11" t="str">
+      <x:c r="Q6" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R6" s="11" t="str">
+      <x:c r="R6" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S6" s="11" t="n">
+      <x:c r="S6" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T6" s="11" t="str">
+      <x:c r="T6" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="B7" s="11" t="str">
+      <x:c r="B7" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C7" s="11" t="str">
+      <x:c r="C7" s="23" t="str">
         <x:v>S31609</x:v>
       </x:c>
-      <x:c r="D7" s="11" t="str">
+      <x:c r="D7" s="23" t="str">
         <x:v>Chan Fai</x:v>
       </x:c>
-      <x:c r="E7" s="11" t="str">
+      <x:c r="E7" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F7" s="11" t="str">
+      <x:c r="F7" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G7" s="13" t="d">
+      <x:c r="G7" s="25" t="d">
         <x:v>2016-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H7" s="11" t="n">
+      <x:c r="H7" s="23" t="n">
         <x:v>4.1694</x:v>
       </x:c>
-      <x:c r="I7" s="11" t="str">
+      <x:c r="I7" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J7" s="11" t="str">
+      <x:c r="J7" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K7" s="11" t="str">
+      <x:c r="K7" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L7" s="11" t="n">
+      <x:c r="L7" s="23" t="n">
         <x:v>22005</x:v>
       </x:c>
-      <x:c r="M7" s="11" t="n">
+      <x:c r="M7" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N7" s="11" t="str">
+      <x:c r="N7" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O7" s="13" t="d">
+      <x:c r="O7" s="25" t="d">
         <x:v>2019-08-14T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P7" s="13" t="d">
+      <x:c r="P7" s="25" t="d">
         <x:v>2034-05-05T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q7" s="11" t="str">
+      <x:c r="Q7" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R7" s="11" t="str">
+      <x:c r="R7" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S7" s="11" t="n">
+      <x:c r="S7" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T7" s="11" t="str">
+      <x:c r="T7" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="B8" s="11" t="str">
+      <x:c r="B8" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C8" s="11" t="str">
+      <x:c r="C8" s="23" t="str">
         <x:v>S31610</x:v>
       </x:c>
-      <x:c r="D8" s="11" t="str">
+      <x:c r="D8" s="23" t="str">
         <x:v>Chan Shun</x:v>
       </x:c>
-      <x:c r="E8" s="11" t="str">
+      <x:c r="E8" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F8" s="11" t="str">
+      <x:c r="F8" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G8" s="13" t="d">
+      <x:c r="G8" s="25" t="d">
         <x:v>2016-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H8" s="11" t="n">
+      <x:c r="H8" s="23" t="n">
         <x:v>4.1694</x:v>
       </x:c>
-      <x:c r="I8" s="11" t="str">
+      <x:c r="I8" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J8" s="11" t="str">
+      <x:c r="J8" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K8" s="11" t="str">
+      <x:c r="K8" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L8" s="11" t="n">
+      <x:c r="L8" s="23" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="M8" s="11" t="n">
+      <x:c r="M8" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N8" s="11" t="str">
+      <x:c r="N8" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O8" s="13" t="d">
+      <x:c r="O8" s="25" t="d">
         <x:v>2018-12-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P8" s="13" t="d">
+      <x:c r="P8" s="25" t="d">
         <x:v>2046-06-06T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q8" s="11" t="str">
+      <x:c r="Q8" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R8" s="11" t="str">
+      <x:c r="R8" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S8" s="11" t="n">
+      <x:c r="S8" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T8" s="11" t="str">
+      <x:c r="T8" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="B9" s="11" t="str">
+      <x:c r="B9" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C9" s="11" t="str">
+      <x:c r="C9" s="23" t="str">
         <x:v>S31611</x:v>
       </x:c>
-      <x:c r="D9" s="11" t="str">
+      <x:c r="D9" s="23" t="str">
         <x:v>Chan Hang</x:v>
       </x:c>
-      <x:c r="E9" s="11" t="str">
+      <x:c r="E9" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F9" s="11" t="str">
+      <x:c r="F9" s="23" t="str">
         <x:v>主任</x:v>
       </x:c>
-      <x:c r="G9" s="13" t="d">
+      <x:c r="G9" s="25" t="d">
         <x:v>2016-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H9" s="11" t="n">
+      <x:c r="H9" s="23" t="n">
         <x:v>4.1694</x:v>
       </x:c>
-      <x:c r="I9" s="11" t="str">
+      <x:c r="I9" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J9" s="11" t="str">
+      <x:c r="J9" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K9" s="11" t="str">
+      <x:c r="K9" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L9" s="11" t="n">
+      <x:c r="L9" s="23" t="n">
         <x:v>30020</x:v>
       </x:c>
-      <x:c r="M9" s="11" t="n">
+      <x:c r="M9" s="23" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="N9" s="11" t="str">
+      <x:c r="N9" s="23" t="str">
         <x:v>MPS</x:v>
       </x:c>
-      <x:c r="O9" s="13" t="d">
+      <x:c r="O9" s="25" t="d">
         <x:v>2016-04-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P9" s="13" t="d">
+      <x:c r="P9" s="25" t="d">
         <x:v>2048-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q9" s="11" t="str">
+      <x:c r="Q9" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R9" s="11" t="str">
+      <x:c r="R9" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S9" s="11" t="n">
+      <x:c r="S9" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T9" s="11" t="str">
+      <x:c r="T9" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="B10" s="11" t="str">
+      <x:c r="B10" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C10" s="11" t="str">
+      <x:c r="C10" s="23" t="str">
         <x:v>S31612</x:v>
       </x:c>
-      <x:c r="D10" s="11" t="str">
+      <x:c r="D10" s="23" t="str">
         <x:v>Chan Ka</x:v>
       </x:c>
-      <x:c r="E10" s="11" t="str">
+      <x:c r="E10" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F10" s="11" t="str">
+      <x:c r="F10" s="23" t="str">
         <x:v>OFFICER 主任</x:v>
       </x:c>
-      <x:c r="G10" s="13" t="d">
+      <x:c r="G10" s="25" t="d">
         <x:v>2016-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H10" s="11" t="n">
+      <x:c r="H10" s="23" t="n">
         <x:v>4.1694</x:v>
       </x:c>
-      <x:c r="I10" s="11" t="str">
+      <x:c r="I10" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J10" s="11" t="str">
+      <x:c r="J10" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K10" s="11" t="str">
+      <x:c r="K10" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L10" s="11" t="n">
+      <x:c r="L10" s="23" t="n">
         <x:v>39554</x:v>
       </x:c>
-      <x:c r="M10" s="11" t="n">
+      <x:c r="M10" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N10" s="11" t="str">
+      <x:c r="N10" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O10" s="13" t="d">
+      <x:c r="O10" s="25" t="d">
         <x:v>2016-04-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P10" s="13" t="d">
+      <x:c r="P10" s="25" t="d">
         <x:v>2048-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q10" s="11" t="str">
+      <x:c r="Q10" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R10" s="11" t="str">
+      <x:c r="R10" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S10" s="11" t="n">
+      <x:c r="S10" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T10" s="11" t="str">
+      <x:c r="T10" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="B11" s="11" t="str">
+      <x:c r="B11" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C11" s="11" t="str">
+      <x:c r="C11" s="23" t="str">
         <x:v>S31636</x:v>
       </x:c>
-      <x:c r="D11" s="11" t="str">
+      <x:c r="D11" s="23" t="str">
         <x:v>Chan Man Hung</x:v>
       </x:c>
-      <x:c r="E11" s="11" t="str">
+      <x:c r="E11" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F11" s="11" t="str">
+      <x:c r="F11" s="23" t="str">
         <x:v>CLERK 文員</x:v>
       </x:c>
-      <x:c r="G11" s="13" t="d">
+      <x:c r="G11" s="25" t="d">
         <x:v>2017-03-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H11" s="11" t="n">
+      <x:c r="H11" s="23" t="n">
         <x:v>3.0082</x:v>
       </x:c>
-      <x:c r="I11" s="11" t="str">
+      <x:c r="I11" s="23" t="str">
         <x:v>AL10</x:v>
       </x:c>
-      <x:c r="J11" s="11" t="str">
+      <x:c r="J11" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K11" s="11" t="str">
+      <x:c r="K11" s="23" t="str">
         <x:v>Hourly</x:v>
       </x:c>
-      <x:c r="L11" s="11" t="n">
+      <x:c r="L11" s="23" t="n">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="M11" s="11" t="n">
+      <x:c r="M11" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N11" s="11" t="str">
+      <x:c r="N11" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O11" s="13" t="d">
+      <x:c r="O11" s="25" t="d">
         <x:v>2018-09-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P11" s="13" t="d">
+      <x:c r="P11" s="25" t="d">
         <x:v>2037-02-03T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q11" s="11" t="str">
+      <x:c r="Q11" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R11" s="11" t="str">
+      <x:c r="R11" s="23" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="S11" s="11" t="n">
+      <x:c r="S11" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T11" s="11" t="str">
+      <x:c r="T11" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="B12" s="11" t="str">
+      <x:c r="B12" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C12" s="11" t="str">
+      <x:c r="C12" s="23" t="str">
         <x:v>S31642</x:v>
       </x:c>
-      <x:c r="D12" s="11" t="str">
+      <x:c r="D12" s="23" t="str">
         <x:v>Chan Siu Fong</x:v>
       </x:c>
-      <x:c r="E12" s="11" t="str">
+      <x:c r="E12" s="23" t="str">
         <x:v>Unit C</x:v>
       </x:c>
-      <x:c r="F12" s="11" t="str">
+      <x:c r="F12" s="23" t="str">
         <x:v>CLERK 文員</x:v>
       </x:c>
-      <x:c r="G12" s="13" t="d">
+      <x:c r="G12" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H12" s="11" t="n">
+      <x:c r="H12" s="23" t="n">
         <x:v>2.1667</x:v>
       </x:c>
-      <x:c r="I12" s="11" t="str">
+      <x:c r="I12" s="23" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c r="J12" s="11" t="str">
+      <x:c r="J12" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K12" s="11" t="str">
+      <x:c r="K12" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L12" s="11" t="n">
+      <x:c r="L12" s="23" t="n">
         <x:v>9000</x:v>
       </x:c>
-      <x:c r="M12" s="11" t="n">
+      <x:c r="M12" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N12" s="11" t="str">
+      <x:c r="N12" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O12" s="13" t="d">
+      <x:c r="O12" s="25" t="d">
         <x:v>2019-08-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P12" s="13" t="d">
+      <x:c r="P12" s="25" t="d">
         <x:v>2040-02-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q12" s="11" t="str">
+      <x:c r="Q12" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R12" s="11" t="str">
+      <x:c r="R12" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S12" s="11" t="n">
+      <x:c r="S12" s="23" t="n">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="T12" s="11" t="str">
+      <x:c r="T12" s="23" t="str">
         <x:v>TST</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
-      <x:c r="B13" s="11" t="str">
+      <x:c r="B13" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C13" s="11" t="str">
+      <x:c r="C13" s="23" t="str">
         <x:v>S31643</x:v>
       </x:c>
-      <x:c r="D13" s="11" t="str">
+      <x:c r="D13" s="23" t="str">
         <x:v>Chan Li Chun</x:v>
       </x:c>
-      <x:c r="E13" s="11" t="str">
+      <x:c r="E13" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F13" s="11" t="str">
+      <x:c r="F13" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G13" s="13" t="d">
+      <x:c r="G13" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H13" s="11" t="n">
+      <x:c r="H13" s="23" t="n">
         <x:v>2.1667</x:v>
       </x:c>
-      <x:c r="I13" s="11" t="str">
+      <x:c r="I13" s="23" t="str">
         <x:v>AL0</x:v>
       </x:c>
-      <x:c r="J13" s="11" t="str">
+      <x:c r="J13" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K13" s="11" t="str">
+      <x:c r="K13" s="23" t="str">
         <x:v>Hourly</x:v>
       </x:c>
-      <x:c r="L13" s="11" t="n">
+      <x:c r="L13" s="23" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="M13" s="11" t="n">
+      <x:c r="M13" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N13" s="11" t="str">
+      <x:c r="N13" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O13" s="13" t="d">
+      <x:c r="O13" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P13" s="13" t="d">
+      <x:c r="P13" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q13" s="11" t="str">
+      <x:c r="Q13" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R13" s="11" t="str">
+      <x:c r="R13" s="23" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="S13" s="11" t="n">
+      <x:c r="S13" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T13" s="11" t="str">
+      <x:c r="T13" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
-      <x:c r="B14" s="11" t="str">
+      <x:c r="B14" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C14" s="11" t="str">
+      <x:c r="C14" s="23" t="str">
         <x:v>S31644</x:v>
       </x:c>
-      <x:c r="D14" s="11" t="str">
+      <x:c r="D14" s="23" t="str">
         <x:v>Cheung Li Chun</x:v>
       </x:c>
-      <x:c r="E14" s="11" t="str">
+      <x:c r="E14" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F14" s="11" t="str">
+      <x:c r="F14" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G14" s="13" t="d">
+      <x:c r="G14" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H14" s="11" t="n">
+      <x:c r="H14" s="23" t="n">
         <x:v>2.1667</x:v>
       </x:c>
-      <x:c r="I14" s="11" t="str">
+      <x:c r="I14" s="23" t="str">
         <x:v>AL0</x:v>
       </x:c>
-      <x:c r="J14" s="11" t="str">
+      <x:c r="J14" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K14" s="11" t="str">
+      <x:c r="K14" s="23" t="str">
         <x:v>Hourly</x:v>
       </x:c>
-      <x:c r="L14" s="11" t="n">
+      <x:c r="L14" s="23" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="M14" s="11" t="n">
+      <x:c r="M14" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N14" s="11" t="str">
+      <x:c r="N14" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O14" s="13" t="d">
+      <x:c r="O14" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P14" s="13" t="d">
+      <x:c r="P14" s="25" t="d">
         <x:v>2041-03-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q14" s="11" t="str">
+      <x:c r="Q14" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R14" s="11" t="str">
+      <x:c r="R14" s="23" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="S14" s="11" t="n">
+      <x:c r="S14" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T14" s="11" t="str">
+      <x:c r="T14" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
-      <x:c r="B15" s="11" t="str">
+      <x:c r="B15" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C15" s="11" t="str">
+      <x:c r="C15" s="23" t="str">
         <x:v>S31645</x:v>
       </x:c>
-      <x:c r="D15" s="11" t="str">
+      <x:c r="D15" s="23" t="str">
         <x:v>Chan Siu Li</x:v>
       </x:c>
-      <x:c r="E15" s="11" t="str">
+      <x:c r="E15" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F15" s="11" t="str">
+      <x:c r="F15" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G15" s="13" t="d">
+      <x:c r="G15" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H15" s="11" t="n">
+      <x:c r="H15" s="23" t="n">
         <x:v>2.1667</x:v>
       </x:c>
-      <x:c r="I15" s="11" t="str">
+      <x:c r="I15" s="23" t="str">
         <x:v>AL0</x:v>
       </x:c>
-      <x:c r="J15" s="11" t="str">
+      <x:c r="J15" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K15" s="11" t="str">
+      <x:c r="K15" s="23" t="str">
         <x:v>Hourly</x:v>
       </x:c>
-      <x:c r="L15" s="11" t="n">
+      <x:c r="L15" s="23" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="M15" s="11" t="n">
+      <x:c r="M15" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N15" s="11" t="str">
+      <x:c r="N15" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O15" s="13" t="d">
+      <x:c r="O15" s="25" t="d">
         <x:v>2018-01-02T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P15" s="13" t="d">
+      <x:c r="P15" s="25" t="d">
         <x:v>2050-12-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q15" s="11" t="str">
+      <x:c r="Q15" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R15" s="11" t="str">
+      <x:c r="R15" s="23" t="str">
         <x:v>Yes</x:v>
       </x:c>
-      <x:c r="S15" s="11" t="n">
+      <x:c r="S15" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T15" s="11" t="str">
+      <x:c r="T15" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
-      <x:c r="B16" s="11" t="str">
+      <x:c r="B16" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C16" s="11" t="str">
+      <x:c r="C16" s="23" t="str">
         <x:v>S31647</x:v>
       </x:c>
-      <x:c r="D16" s="11" t="str">
+      <x:c r="D16" s="23" t="str">
         <x:v>Chan guan guan</x:v>
       </x:c>
-      <x:c r="E16" s="11" t="str">
+      <x:c r="E16" s="23" t="str">
         <x:v>Unit B</x:v>
       </x:c>
-      <x:c r="F16" s="11" t="str">
+      <x:c r="F16" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G16" s="13" t="d">
+      <x:c r="G16" s="25" t="d">
         <x:v>2015-11-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H16" s="11" t="n">
+      <x:c r="H16" s="23" t="n">
         <x:v>4.3005</x:v>
       </x:c>
-      <x:c r="I16" s="11" t="str">
+      <x:c r="I16" s="23" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c r="J16" s="11" t="str">
+      <x:c r="J16" s="23" t="str">
         <x:v>Statutory Holiday</x:v>
       </x:c>
-      <x:c r="K16" s="11" t="str">
+      <x:c r="K16" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L16" s="11" t="n">
+      <x:c r="L16" s="23" t="n">
         <x:v>15000</x:v>
       </x:c>
-      <x:c r="M16" s="11" t="n">
+      <x:c r="M16" s="23" t="n">
         <x:v/>
       </x:c>
-      <x:c r="N16" s="11" t="str">
+      <x:c r="N16" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O16" s="13" t="d">
+      <x:c r="O16" s="25" t="d">
         <x:v>2019-09-10T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P16" s="13" t="d">
+      <x:c r="P16" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q16" s="11" t="str">
+      <x:c r="Q16" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R16" s="11" t="str">
+      <x:c r="R16" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S16" s="11" t="n">
+      <x:c r="S16" s="23" t="n">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="T16" s="11" t="str">
+      <x:c r="T16" s="23" t="str">
         <x:v>CARE</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
-      <x:c r="B17" s="11" t="str">
+      <x:c r="B17" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C17" s="11" t="str">
+      <x:c r="C17" s="23" t="str">
         <x:v>S31649</x:v>
       </x:c>
-      <x:c r="D17" s="11" t="str">
+      <x:c r="D17" s="23" t="str">
         <x:v>Chan Chi Man</x:v>
       </x:c>
-      <x:c r="E17" s="11" t="str">
+      <x:c r="E17" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F17" s="11" t="str">
+      <x:c r="F17" s="23" t="str">
         <x:v>福利服務助理</x:v>
       </x:c>
-      <x:c r="G17" s="13" t="d">
+      <x:c r="G17" s="25" t="d">
         <x:v>2018-03-08T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H17" s="11" t="n">
+      <x:c r="H17" s="23" t="n">
         <x:v>1.9891</x:v>
       </x:c>
-      <x:c r="I17" s="11" t="str">
+      <x:c r="I17" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J17" s="11" t="str">
+      <x:c r="J17" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K17" s="11" t="str">
+      <x:c r="K17" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L17" s="11" t="n">
+      <x:c r="L17" s="23" t="n">
         <x:v>20650</x:v>
       </x:c>
-      <x:c r="M17" s="11" t="n">
+      <x:c r="M17" s="23" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="N17" s="11" t="str">
+      <x:c r="N17" s="23" t="str">
         <x:v>MPS</x:v>
       </x:c>
-      <x:c r="O17" s="13" t="d">
+      <x:c r="O17" s="25" t="d">
         <x:v>2018-03-08T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P17" s="13" t="d">
+      <x:c r="P17" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q17" s="11" t="str">
+      <x:c r="Q17" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R17" s="11" t="str">
+      <x:c r="R17" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S17" s="11" t="n">
+      <x:c r="S17" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T17" s="11" t="str">
+      <x:c r="T17" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
-      <x:c r="B18" s="11" t="str">
+      <x:c r="B18" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C18" s="11" t="str">
+      <x:c r="C18" s="23" t="str">
         <x:v>S31651</x:v>
       </x:c>
-      <x:c r="D18" s="11" t="str">
+      <x:c r="D18" s="23" t="str">
         <x:v>Chan Tai Man, Peter</x:v>
       </x:c>
-      <x:c r="E18" s="11" t="str">
+      <x:c r="E18" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F18" s="11" t="str">
+      <x:c r="F18" s="23" t="str">
         <x:v>Project Executive</x:v>
       </x:c>
-      <x:c r="G18" s="13" t="d">
+      <x:c r="G18" s="25" t="d">
         <x:v>2016-11-10T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H18" s="11" t="n">
+      <x:c r="H18" s="23" t="n">
         <x:v>3.3142</x:v>
       </x:c>
-      <x:c r="I18" s="11" t="str">
+      <x:c r="I18" s="23" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c r="J18" s="11" t="str">
+      <x:c r="J18" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K18" s="11" t="str">
+      <x:c r="K18" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L18" s="11" t="n">
+      <x:c r="L18" s="23" t="n">
         <x:v>30320</x:v>
       </x:c>
-      <x:c r="M18" s="11" t="n">
+      <x:c r="M18" s="23" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="N18" s="11" t="str">
+      <x:c r="N18" s="23" t="str">
         <x:v>MPS</x:v>
       </x:c>
-      <x:c r="O18" s="13" t="d">
+      <x:c r="O18" s="25" t="d">
         <x:v>2017-11-10T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P18" s="13" t="d">
+      <x:c r="P18" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q18" s="11" t="str">
+      <x:c r="Q18" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R18" s="11" t="str">
+      <x:c r="R18" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S18" s="11" t="n">
+      <x:c r="S18" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T18" s="11" t="str">
+      <x:c r="T18" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
-      <x:c r="B19" s="11" t="str">
+      <x:c r="B19" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C19" s="11" t="str">
+      <x:c r="C19" s="23" t="str">
         <x:v>S31660</x:v>
       </x:c>
-      <x:c r="D19" s="11" t="str">
+      <x:c r="D19" s="23" t="str">
         <x:v>Chan King</x:v>
       </x:c>
-      <x:c r="E19" s="11" t="str">
+      <x:c r="E19" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F19" s="11" t="str">
+      <x:c r="F19" s="23" t="str">
         <x:v>福利服務助理</x:v>
       </x:c>
-      <x:c r="G19" s="13" t="d">
+      <x:c r="G19" s="25" t="d">
         <x:v>2018-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H19" s="11" t="n">
+      <x:c r="H19" s="23" t="n">
         <x:v>2.1694</x:v>
       </x:c>
-      <x:c r="I19" s="11" t="str">
+      <x:c r="I19" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J19" s="11" t="str">
+      <x:c r="J19" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K19" s="11" t="str">
+      <x:c r="K19" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L19" s="11" t="n">
+      <x:c r="L19" s="23" t="n">
         <x:v>16000</x:v>
       </x:c>
-      <x:c r="M19" s="11" t="n">
+      <x:c r="M19" s="23" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N19" s="11" t="str">
+      <x:c r="N19" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O19" s="13" t="d">
+      <x:c r="O19" s="25" t="d">
         <x:v>2018-12-14T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P19" s="13" t="d">
+      <x:c r="P19" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q19" s="11" t="str">
+      <x:c r="Q19" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R19" s="11" t="str">
+      <x:c r="R19" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S19" s="11" t="n">
+      <x:c r="S19" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T19" s="11" t="str">
+      <x:c r="T19" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
-      <x:c r="A20" s="11" t="str">
+      <x:c r="A20" s="23" t="str">
         <x:v>_DATAEND</x:v>
       </x:c>
-      <x:c r="B20" s="11" t="str">
+      <x:c r="B20" s="23" t="str">
         <x:v>Data World Solutions Ltd</x:v>
       </x:c>
-      <x:c r="C20" s="11" t="str">
+      <x:c r="C20" s="23" t="str">
         <x:v>S31662</x:v>
       </x:c>
-      <x:c r="D20" s="11" t="str">
+      <x:c r="D20" s="23" t="str">
         <x:v>Chan Kit</x:v>
       </x:c>
-      <x:c r="E20" s="11" t="str">
+      <x:c r="E20" s="23" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c r="F20" s="11" t="str">
+      <x:c r="F20" s="23" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c r="G20" s="13" t="d">
+      <x:c r="G20" s="25" t="d">
         <x:v>2019-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="H20" s="11" t="n">
+      <x:c r="H20" s="23" t="n">
         <x:v>1.1694</x:v>
       </x:c>
-      <x:c r="I20" s="11" t="str">
+      <x:c r="I20" s="23" t="str">
         <x:v>AL14</x:v>
       </x:c>
-      <x:c r="J20" s="11" t="str">
+      <x:c r="J20" s="23" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c r="K20" s="11" t="str">
+      <x:c r="K20" s="23" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c r="L20" s="11" t="n">
+      <x:c r="L20" s="23" t="n">
         <x:v>15000</x:v>
       </x:c>
-      <x:c r="M20" s="11" t="n">
+      <x:c r="M20" s="23" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="N20" s="11" t="str">
+      <x:c r="N20" s="23" t="str">
         <x:v/>
       </x:c>
-      <x:c r="O20" s="13" t="d">
+      <x:c r="O20" s="25" t="d">
         <x:v>2019-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="P20" s="13" t="d">
+      <x:c r="P20" s="25" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c r="Q20" s="11" t="str">
+      <x:c r="Q20" s="23" t="str">
         <x:v>Active</x:v>
       </x:c>
-      <x:c r="R20" s="11" t="str">
+      <x:c r="R20" s="23" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c r="S20" s="11" t="n">
+      <x:c r="S20" s="23" t="n">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="T20" s="11" t="str">
+      <x:c r="T20" s="23" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
